--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3394.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3394.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.66095630130621</v>
+        <v>1.159667134284973</v>
       </c>
       <c r="B1">
-        <v>2.179028441360294</v>
+        <v>3.264880418777466</v>
       </c>
       <c r="C1">
-        <v>2.379437359128671</v>
+        <v>5.288897037506104</v>
       </c>
       <c r="D1">
-        <v>2.841972374420808</v>
+        <v>2.25877571105957</v>
       </c>
       <c r="E1">
-        <v>3.770189107114937</v>
+        <v>1.376042723655701</v>
       </c>
     </row>
   </sheetData>
